--- a/result/gr50_07_simulated/details.xlsx
+++ b/result/gr50_07_simulated/details.xlsx
@@ -570,73 +570,73 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4359703063964844</v>
+        <v>0.3926408290863037</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>240.6611734233793</v>
+        <v>247.7827508240771</v>
       </c>
       <c r="F2" t="n">
-        <v>0.006899505706238434</v>
+        <v>0.007039267630775069</v>
       </c>
       <c r="G2" t="n">
-        <v>0.005990768983869393</v>
+        <v>0.006379505252995147</v>
       </c>
       <c r="H2" t="n">
-        <v>0.005979660035399536</v>
+        <v>0.005992676679445358</v>
       </c>
       <c r="I2" t="n">
-        <v>0.005512306566142725</v>
+        <v>0.005933050649050004</v>
       </c>
       <c r="J2" t="n">
-        <v>0.00535041183213284</v>
+        <v>0.005670554378618023</v>
       </c>
       <c r="K2" t="n">
-        <v>0.00535041183213284</v>
+        <v>0.00554609230832486</v>
       </c>
       <c r="L2" t="n">
-        <v>0.00535041183213284</v>
+        <v>0.005368068416555367</v>
       </c>
       <c r="M2" t="n">
-        <v>0.005140008161095635</v>
+        <v>0.005350028676182287</v>
       </c>
       <c r="N2" t="n">
-        <v>0.00496108713021669</v>
+        <v>0.005330886920923888</v>
       </c>
       <c r="O2" t="n">
-        <v>0.004921517271716501</v>
+        <v>0.005222996853396169</v>
       </c>
       <c r="P2" t="n">
-        <v>0.004921517271716501</v>
+        <v>0.005201374725740684</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.004921517271716501</v>
+        <v>0.005158564432651586</v>
       </c>
       <c r="R2" t="n">
-        <v>0.004912629490460714</v>
+        <v>0.005158564432651586</v>
       </c>
       <c r="S2" t="n">
-        <v>0.00484987550714473</v>
+        <v>0.005031695058987714</v>
       </c>
       <c r="T2" t="n">
-        <v>0.004748749110624141</v>
+        <v>0.005000882620650365</v>
       </c>
       <c r="U2" t="n">
-        <v>0.004748749110624141</v>
+        <v>0.004997183714750971</v>
       </c>
       <c r="V2" t="n">
-        <v>0.004748749110624141</v>
+        <v>0.004964961072714322</v>
       </c>
       <c r="W2" t="n">
-        <v>0.004747276541471278</v>
+        <v>0.004861463602686795</v>
       </c>
       <c r="X2" t="n">
-        <v>0.004707839886909176</v>
+        <v>0.004856428651974109</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.004691250943925521</v>
+        <v>0.004830073115479084</v>
       </c>
     </row>
     <row r="3">
@@ -649,73 +649,73 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4772872924804688</v>
+        <v>0.4374735355377197</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>240.9948522551786</v>
+        <v>236.3471185846793</v>
       </c>
       <c r="F3" t="n">
-        <v>0.006935673402252869</v>
+        <v>0.006924576998276322</v>
       </c>
       <c r="G3" t="n">
-        <v>0.006125284702824496</v>
+        <v>0.006413894287459016</v>
       </c>
       <c r="H3" t="n">
-        <v>0.005780585685012754</v>
+        <v>0.005695724227595159</v>
       </c>
       <c r="I3" t="n">
-        <v>0.00568065297815426</v>
+        <v>0.005432667444686222</v>
       </c>
       <c r="J3" t="n">
-        <v>0.005489339479144083</v>
+        <v>0.00537775210224709</v>
       </c>
       <c r="K3" t="n">
-        <v>0.005489339479144083</v>
+        <v>0.005198389032611033</v>
       </c>
       <c r="L3" t="n">
-        <v>0.00516282812390184</v>
+        <v>0.005048080143509221</v>
       </c>
       <c r="M3" t="n">
-        <v>0.00516282812390184</v>
+        <v>0.004965241438048888</v>
       </c>
       <c r="N3" t="n">
-        <v>0.005016371243546904</v>
+        <v>0.004965241438048888</v>
       </c>
       <c r="O3" t="n">
-        <v>0.005016371243546904</v>
+        <v>0.004965241438048888</v>
       </c>
       <c r="P3" t="n">
-        <v>0.004935080371479771</v>
+        <v>0.004855774544629095</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.004931263737826457</v>
+        <v>0.004779921238549145</v>
       </c>
       <c r="R3" t="n">
-        <v>0.004830318356722648</v>
+        <v>0.004730227818857203</v>
       </c>
       <c r="S3" t="n">
-        <v>0.004830318356722648</v>
+        <v>0.004730227818857203</v>
       </c>
       <c r="T3" t="n">
-        <v>0.004796241861619284</v>
+        <v>0.004707253353470391</v>
       </c>
       <c r="U3" t="n">
-        <v>0.004767768982743206</v>
+        <v>0.00467207040456914</v>
       </c>
       <c r="V3" t="n">
-        <v>0.004767768982743206</v>
+        <v>0.00466485475020488</v>
       </c>
       <c r="W3" t="n">
-        <v>0.00474726108218836</v>
+        <v>0.004639791634209141</v>
       </c>
       <c r="X3" t="n">
-        <v>0.004723904299691043</v>
+        <v>0.004631921710464042</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.004697755404584376</v>
+        <v>0.004607156307693551</v>
       </c>
     </row>
     <row r="4">
@@ -728,73 +728,73 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4442644119262695</v>
+        <v>0.5156247615814209</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>243.7071548269068</v>
+        <v>235.6774715577303</v>
       </c>
       <c r="F4" t="n">
-        <v>0.007156830018774656</v>
+        <v>0.006991883289192024</v>
       </c>
       <c r="G4" t="n">
-        <v>0.006316329694159329</v>
+        <v>0.006216056926719194</v>
       </c>
       <c r="H4" t="n">
-        <v>0.006099996498828242</v>
+        <v>0.006100775546888117</v>
       </c>
       <c r="I4" t="n">
-        <v>0.00581828017072916</v>
+        <v>0.005716206943185562</v>
       </c>
       <c r="J4" t="n">
-        <v>0.005400496024323576</v>
+        <v>0.005643899836768592</v>
       </c>
       <c r="K4" t="n">
-        <v>0.005400496024323576</v>
+        <v>0.005576468286968062</v>
       </c>
       <c r="L4" t="n">
-        <v>0.005246203957326214</v>
+        <v>0.005389589799091743</v>
       </c>
       <c r="M4" t="n">
-        <v>0.005216163962242652</v>
+        <v>0.005251061208827164</v>
       </c>
       <c r="N4" t="n">
-        <v>0.005216163962242652</v>
+        <v>0.005232184215597051</v>
       </c>
       <c r="O4" t="n">
-        <v>0.005170628336857413</v>
+        <v>0.005062461164214159</v>
       </c>
       <c r="P4" t="n">
-        <v>0.005098514559007841</v>
+        <v>0.005039260274946298</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.005033665531188168</v>
+        <v>0.004948983830580043</v>
       </c>
       <c r="R4" t="n">
-        <v>0.005024760448957156</v>
+        <v>0.004813853858165856</v>
       </c>
       <c r="S4" t="n">
-        <v>0.00496850180832315</v>
+        <v>0.00471486728055802</v>
       </c>
       <c r="T4" t="n">
-        <v>0.004929176827201487</v>
+        <v>0.00471486728055802</v>
       </c>
       <c r="U4" t="n">
-        <v>0.004849853945825779</v>
+        <v>0.00471486728055802</v>
       </c>
       <c r="V4" t="n">
-        <v>0.004805311294356384</v>
+        <v>0.004680508199265471</v>
       </c>
       <c r="W4" t="n">
-        <v>0.004793452109379482</v>
+        <v>0.004626800425830808</v>
       </c>
       <c r="X4" t="n">
-        <v>0.004773147921414366</v>
+        <v>0.004612829133752524</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.004750626799744771</v>
+        <v>0.004594102759409946</v>
       </c>
     </row>
     <row r="5">
@@ -807,73 +807,73 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3943002223968506</v>
+        <v>0.4218757152557373</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>235.5148099553535</v>
+        <v>234.8336414771766</v>
       </c>
       <c r="F5" t="n">
-        <v>0.007129461690906786</v>
+        <v>0.007164587072448732</v>
       </c>
       <c r="G5" t="n">
-        <v>0.006331483517552737</v>
+        <v>0.006050059988423096</v>
       </c>
       <c r="H5" t="n">
-        <v>0.005971068102006003</v>
+        <v>0.005756281780270556</v>
       </c>
       <c r="I5" t="n">
-        <v>0.005898663110343533</v>
+        <v>0.005593430202232652</v>
       </c>
       <c r="J5" t="n">
-        <v>0.005598936492360539</v>
+        <v>0.005450650160137281</v>
       </c>
       <c r="K5" t="n">
-        <v>0.005197219609531192</v>
+        <v>0.005439892877537763</v>
       </c>
       <c r="L5" t="n">
-        <v>0.005197219609531192</v>
+        <v>0.005262587291965731</v>
       </c>
       <c r="M5" t="n">
-        <v>0.005109742791929024</v>
+        <v>0.005237266037350487</v>
       </c>
       <c r="N5" t="n">
-        <v>0.004998250722181795</v>
+        <v>0.004952001170737065</v>
       </c>
       <c r="O5" t="n">
-        <v>0.004909713913778522</v>
+        <v>0.004917439462269275</v>
       </c>
       <c r="P5" t="n">
-        <v>0.004909713913778522</v>
+        <v>0.004909506667708198</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.00483177691548442</v>
+        <v>0.004810135280202383</v>
       </c>
       <c r="R5" t="n">
-        <v>0.00483177691548442</v>
+        <v>0.004740524163207559</v>
       </c>
       <c r="S5" t="n">
-        <v>0.004752687255792326</v>
+        <v>0.004697780683187697</v>
       </c>
       <c r="T5" t="n">
-        <v>0.004752687255792326</v>
+        <v>0.004682468173245597</v>
       </c>
       <c r="U5" t="n">
-        <v>0.004691119970893371</v>
+        <v>0.004655913975576752</v>
       </c>
       <c r="V5" t="n">
-        <v>0.004690823768545186</v>
+        <v>0.004642109381614089</v>
       </c>
       <c r="W5" t="n">
-        <v>0.004630588623424177</v>
+        <v>0.00459128954086341</v>
       </c>
       <c r="X5" t="n">
-        <v>0.00459908970370696</v>
+        <v>0.00459128954086341</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.004590931967940613</v>
+        <v>0.004577653829964454</v>
       </c>
     </row>
     <row r="6">
@@ -886,73 +886,73 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5254762172698975</v>
+        <v>0.4375348091125488</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>241.4649313127211</v>
+        <v>241.3709982473665</v>
       </c>
       <c r="F6" t="n">
-        <v>0.007062987389917534</v>
+        <v>0.006903139592921585</v>
       </c>
       <c r="G6" t="n">
-        <v>0.006097608832988716</v>
+        <v>0.006204056699690823</v>
       </c>
       <c r="H6" t="n">
-        <v>0.005860189607170063</v>
+        <v>0.005757271650882048</v>
       </c>
       <c r="I6" t="n">
-        <v>0.005428886041236483</v>
+        <v>0.005698095064417109</v>
       </c>
       <c r="J6" t="n">
-        <v>0.005371114994962227</v>
+        <v>0.005554323254832533</v>
       </c>
       <c r="K6" t="n">
-        <v>0.005265443038739642</v>
+        <v>0.005554323254832533</v>
       </c>
       <c r="L6" t="n">
-        <v>0.00499774477381981</v>
+        <v>0.005546628031019561</v>
       </c>
       <c r="M6" t="n">
-        <v>0.00499774477381981</v>
+        <v>0.005391319488743227</v>
       </c>
       <c r="N6" t="n">
-        <v>0.004972760516165469</v>
+        <v>0.005391319488743227</v>
       </c>
       <c r="O6" t="n">
-        <v>0.004972760516165469</v>
+        <v>0.005244614828560066</v>
       </c>
       <c r="P6" t="n">
-        <v>0.004821715542004727</v>
+        <v>0.00515059944027896</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.004821715542004727</v>
+        <v>0.004947169500467859</v>
       </c>
       <c r="R6" t="n">
-        <v>0.004821715542004727</v>
+        <v>0.004947169500467859</v>
       </c>
       <c r="S6" t="n">
-        <v>0.004821715542004727</v>
+        <v>0.004892568588757074</v>
       </c>
       <c r="T6" t="n">
-        <v>0.004800799381813398</v>
+        <v>0.004858157973933691</v>
       </c>
       <c r="U6" t="n">
-        <v>0.004786062212088511</v>
+        <v>0.004825713092965233</v>
       </c>
       <c r="V6" t="n">
-        <v>0.004762988764628566</v>
+        <v>0.004785250813344502</v>
       </c>
       <c r="W6" t="n">
-        <v>0.00473002287103861</v>
+        <v>0.004785250813344502</v>
       </c>
       <c r="X6" t="n">
-        <v>0.004718360092460977</v>
+        <v>0.004719877406016137</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.004706918739039396</v>
+        <v>0.004705087685133849</v>
       </c>
     </row>
     <row r="7">
@@ -965,73 +965,73 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6725006103515625</v>
+        <v>0.5569784641265869</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>244.8977290989442</v>
+        <v>242.6358888408104</v>
       </c>
       <c r="F7" t="n">
-        <v>0.007034790477538623</v>
+        <v>0.006887718867366348</v>
       </c>
       <c r="G7" t="n">
-        <v>0.006081872509442257</v>
+        <v>0.006063487179328527</v>
       </c>
       <c r="H7" t="n">
-        <v>0.006081872509442257</v>
+        <v>0.005877852989776113</v>
       </c>
       <c r="I7" t="n">
-        <v>0.005839135657003358</v>
+        <v>0.005603297877380177</v>
       </c>
       <c r="J7" t="n">
-        <v>0.005839135657003358</v>
+        <v>0.005560686992261497</v>
       </c>
       <c r="K7" t="n">
-        <v>0.005743259059542082</v>
+        <v>0.005359086019515882</v>
       </c>
       <c r="L7" t="n">
-        <v>0.005492398319879744</v>
+        <v>0.005233873793228222</v>
       </c>
       <c r="M7" t="n">
-        <v>0.005446853873919203</v>
+        <v>0.005146086463740425</v>
       </c>
       <c r="N7" t="n">
-        <v>0.005247535554639394</v>
+        <v>0.005146086463740425</v>
       </c>
       <c r="O7" t="n">
-        <v>0.005093314611273674</v>
+        <v>0.005142828519656424</v>
       </c>
       <c r="P7" t="n">
-        <v>0.005062783718184144</v>
+        <v>0.004995613644830909</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.004994130541391308</v>
+        <v>0.004937869913442625</v>
       </c>
       <c r="R7" t="n">
-        <v>0.004931893811520454</v>
+        <v>0.004870360548434955</v>
       </c>
       <c r="S7" t="n">
-        <v>0.004915050831055481</v>
+        <v>0.004870360548434955</v>
       </c>
       <c r="T7" t="n">
-        <v>0.004873659169177052</v>
+        <v>0.004854372168062969</v>
       </c>
       <c r="U7" t="n">
-        <v>0.004801889774071259</v>
+        <v>0.004786134759725297</v>
       </c>
       <c r="V7" t="n">
-        <v>0.004801889774071259</v>
+        <v>0.004757437572317716</v>
       </c>
       <c r="W7" t="n">
-        <v>0.004801889774071259</v>
+        <v>0.004757437572317716</v>
       </c>
       <c r="X7" t="n">
-        <v>0.004801889774071259</v>
+        <v>0.004753879162830339</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.004773834875223083</v>
+        <v>0.004729744421848154</v>
       </c>
     </row>
     <row r="8">
@@ -1044,73 +1044,73 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4383158683776855</v>
+        <v>0.4241547584533691</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>240.7444106491494</v>
+        <v>251.4473630892771</v>
       </c>
       <c r="F8" t="n">
-        <v>0.006983962796292609</v>
+        <v>0.007109132424406193</v>
       </c>
       <c r="G8" t="n">
-        <v>0.006098697420982726</v>
+        <v>0.006042823208021887</v>
       </c>
       <c r="H8" t="n">
-        <v>0.005938567837972946</v>
+        <v>0.00592215226963446</v>
       </c>
       <c r="I8" t="n">
-        <v>0.005790787632701648</v>
+        <v>0.005632143238663029</v>
       </c>
       <c r="J8" t="n">
-        <v>0.005620261706135954</v>
+        <v>0.005632143238663029</v>
       </c>
       <c r="K8" t="n">
-        <v>0.005286484074320568</v>
+        <v>0.005520109195946438</v>
       </c>
       <c r="L8" t="n">
-        <v>0.005219037589357819</v>
+        <v>0.005520109195946438</v>
       </c>
       <c r="M8" t="n">
-        <v>0.005219037589357819</v>
+        <v>0.005520109195946438</v>
       </c>
       <c r="N8" t="n">
-        <v>0.004973190002217404</v>
+        <v>0.005520109195946438</v>
       </c>
       <c r="O8" t="n">
-        <v>0.004973190002217404</v>
+        <v>0.005296690572315028</v>
       </c>
       <c r="P8" t="n">
-        <v>0.004967579570422624</v>
+        <v>0.005296690572315028</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.004957832620656966</v>
+        <v>0.005205694379888548</v>
       </c>
       <c r="R8" t="n">
-        <v>0.004855515267701623</v>
+        <v>0.00513515907119778</v>
       </c>
       <c r="S8" t="n">
-        <v>0.004836334678644422</v>
+        <v>0.005065338725895311</v>
       </c>
       <c r="T8" t="n">
-        <v>0.00478132979076481</v>
+        <v>0.004969108437109032</v>
       </c>
       <c r="U8" t="n">
-        <v>0.00478132979076481</v>
+        <v>0.004969108437109032</v>
       </c>
       <c r="V8" t="n">
-        <v>0.004711619724681195</v>
+        <v>0.004948391964720776</v>
       </c>
       <c r="W8" t="n">
-        <v>0.004711619724681195</v>
+        <v>0.004947991265724102</v>
       </c>
       <c r="X8" t="n">
-        <v>0.004694406262835158</v>
+        <v>0.004901508052422556</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.004692873501932734</v>
+        <v>0.004901508052422556</v>
       </c>
     </row>
     <row r="9">
@@ -1123,73 +1123,73 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4530847072601318</v>
+        <v>0.4375081062316895</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>231.893667052429</v>
+        <v>238.6743466546432</v>
       </c>
       <c r="F9" t="n">
-        <v>0.007029413174282542</v>
+        <v>0.007110440230760829</v>
       </c>
       <c r="G9" t="n">
-        <v>0.006369977755512648</v>
+        <v>0.006290415420899859</v>
       </c>
       <c r="H9" t="n">
-        <v>0.005839801412355129</v>
+        <v>0.005660798712296734</v>
       </c>
       <c r="I9" t="n">
-        <v>0.005778265614849534</v>
+        <v>0.005660798712296734</v>
       </c>
       <c r="J9" t="n">
-        <v>0.005539163869592666</v>
+        <v>0.005526496296618408</v>
       </c>
       <c r="K9" t="n">
-        <v>0.005361746092564987</v>
+        <v>0.005278738572034594</v>
       </c>
       <c r="L9" t="n">
-        <v>0.005164092251399874</v>
+        <v>0.005238727854869574</v>
       </c>
       <c r="M9" t="n">
-        <v>0.004967073103760989</v>
+        <v>0.005080838014660986</v>
       </c>
       <c r="N9" t="n">
-        <v>0.004967073103760989</v>
+        <v>0.005080838014660986</v>
       </c>
       <c r="O9" t="n">
-        <v>0.004740923501810212</v>
+        <v>0.005010461058546392</v>
       </c>
       <c r="P9" t="n">
-        <v>0.004740923501810212</v>
+        <v>0.004962920583519496</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.004740923501810212</v>
+        <v>0.004887595201686003</v>
       </c>
       <c r="R9" t="n">
-        <v>0.004642810041520797</v>
+        <v>0.004887595201686003</v>
       </c>
       <c r="S9" t="n">
-        <v>0.004642810041520797</v>
+        <v>0.004887595201686003</v>
       </c>
       <c r="T9" t="n">
-        <v>0.004636759639848555</v>
+        <v>0.00483145318522345</v>
       </c>
       <c r="U9" t="n">
-        <v>0.004597703162039605</v>
+        <v>0.004766390292302868</v>
       </c>
       <c r="V9" t="n">
-        <v>0.004566171966638875</v>
+        <v>0.004715112274485579</v>
       </c>
       <c r="W9" t="n">
-        <v>0.004548141568051767</v>
+        <v>0.004692808336503287</v>
       </c>
       <c r="X9" t="n">
-        <v>0.004548141568051767</v>
+        <v>0.004664200919009476</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.004520344386986919</v>
+        <v>0.004652521377283492</v>
       </c>
     </row>
     <row r="10">
@@ -1202,73 +1202,73 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4403953552246094</v>
+        <v>0.4531004428863525</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>252.4328967938218</v>
+        <v>241.070044650065</v>
       </c>
       <c r="F10" t="n">
-        <v>0.006978404678179215</v>
+        <v>0.006982259873881369</v>
       </c>
       <c r="G10" t="n">
-        <v>0.006353892530666968</v>
+        <v>0.006023874135017891</v>
       </c>
       <c r="H10" t="n">
-        <v>0.006052698190839919</v>
+        <v>0.006018370504520538</v>
       </c>
       <c r="I10" t="n">
-        <v>0.005662004659276191</v>
+        <v>0.005713122579205059</v>
       </c>
       <c r="J10" t="n">
-        <v>0.005662004659276191</v>
+        <v>0.005708302549488474</v>
       </c>
       <c r="K10" t="n">
-        <v>0.005523169961836694</v>
+        <v>0.005377935670662656</v>
       </c>
       <c r="L10" t="n">
-        <v>0.005514981877949019</v>
+        <v>0.005377935670662656</v>
       </c>
       <c r="M10" t="n">
-        <v>0.005474676748911335</v>
+        <v>0.005083272663345992</v>
       </c>
       <c r="N10" t="n">
-        <v>0.005225933979898534</v>
+        <v>0.005083272663345992</v>
       </c>
       <c r="O10" t="n">
-        <v>0.005225933979898534</v>
+        <v>0.005076052182641191</v>
       </c>
       <c r="P10" t="n">
-        <v>0.005225933979898534</v>
+        <v>0.005002875746391601</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.005216067561091212</v>
+        <v>0.004910801382794216</v>
       </c>
       <c r="R10" t="n">
-        <v>0.005087202889427541</v>
+        <v>0.004897457529354403</v>
       </c>
       <c r="S10" t="n">
-        <v>0.005083265189029569</v>
+        <v>0.004817160699171188</v>
       </c>
       <c r="T10" t="n">
-        <v>0.005056380484036293</v>
+        <v>0.004817160699171188</v>
       </c>
       <c r="U10" t="n">
-        <v>0.005008733965239504</v>
+        <v>0.004798742237798486</v>
       </c>
       <c r="V10" t="n">
-        <v>0.004967550205687319</v>
+        <v>0.004768103586381387</v>
       </c>
       <c r="W10" t="n">
-        <v>0.004949181182282505</v>
+        <v>0.004745466125138997</v>
       </c>
       <c r="X10" t="n">
-        <v>0.004944417344557269</v>
+        <v>0.004701409642272272</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.004920719235747012</v>
+        <v>0.00469922114327612</v>
       </c>
     </row>
     <row r="11">
@@ -1281,73 +1281,73 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6433708667755127</v>
+        <v>0.4219002723693848</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>248.8958872241274</v>
+        <v>244.0361624010875</v>
       </c>
       <c r="F11" t="n">
-        <v>0.00698261992954493</v>
+        <v>0.006939853198287947</v>
       </c>
       <c r="G11" t="n">
-        <v>0.006380056986187222</v>
+        <v>0.006184302063529063</v>
       </c>
       <c r="H11" t="n">
-        <v>0.005941762153541746</v>
+        <v>0.005863156135026648</v>
       </c>
       <c r="I11" t="n">
-        <v>0.005606187767360798</v>
+        <v>0.005706046768763199</v>
       </c>
       <c r="J11" t="n">
-        <v>0.005606187767360798</v>
+        <v>0.005393229082475375</v>
       </c>
       <c r="K11" t="n">
-        <v>0.005529543130952469</v>
+        <v>0.005352543038583742</v>
       </c>
       <c r="L11" t="n">
-        <v>0.005430248476626459</v>
+        <v>0.005352543038583742</v>
       </c>
       <c r="M11" t="n">
-        <v>0.005359376864496837</v>
+        <v>0.00502433553759918</v>
       </c>
       <c r="N11" t="n">
-        <v>0.005310363701309005</v>
+        <v>0.00502433553759918</v>
       </c>
       <c r="O11" t="n">
-        <v>0.005220449744859234</v>
+        <v>0.00502433553759918</v>
       </c>
       <c r="P11" t="n">
-        <v>0.005193632956961628</v>
+        <v>0.004993050516996236</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.00517726296997271</v>
+        <v>0.004973710896965481</v>
       </c>
       <c r="R11" t="n">
-        <v>0.004970618378873459</v>
+        <v>0.004973710896965481</v>
       </c>
       <c r="S11" t="n">
-        <v>0.004970618378873459</v>
+        <v>0.004852222514633417</v>
       </c>
       <c r="T11" t="n">
-        <v>0.004970618378873459</v>
+        <v>0.004852222514633417</v>
       </c>
       <c r="U11" t="n">
-        <v>0.004970618378873459</v>
+        <v>0.004852222514633417</v>
       </c>
       <c r="V11" t="n">
-        <v>0.004909468931633121</v>
+        <v>0.004781483924785507</v>
       </c>
       <c r="W11" t="n">
-        <v>0.004897052071384613</v>
+        <v>0.004781483924785507</v>
       </c>
       <c r="X11" t="n">
-        <v>0.004875387097074361</v>
+        <v>0.004768052431868303</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.004851771680782209</v>
+        <v>0.004757040202750243</v>
       </c>
     </row>
   </sheetData>

--- a/result/gr50_07_simulated/details.xlsx
+++ b/result/gr50_07_simulated/details.xlsx
@@ -570,73 +570,73 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3926408290863037</v>
+        <v>0.893996000289917</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>247.7827508240771</v>
+        <v>254.2706696112509</v>
       </c>
       <c r="F2" t="n">
-        <v>0.007039267630775069</v>
+        <v>0.00839555860285668</v>
       </c>
       <c r="G2" t="n">
-        <v>0.006379505252995147</v>
+        <v>0.007317598813832849</v>
       </c>
       <c r="H2" t="n">
-        <v>0.005992676679445358</v>
+        <v>0.006777562160607</v>
       </c>
       <c r="I2" t="n">
-        <v>0.005933050649050004</v>
+        <v>0.006574432875336125</v>
       </c>
       <c r="J2" t="n">
-        <v>0.005670554378618023</v>
+        <v>0.006048304449325841</v>
       </c>
       <c r="K2" t="n">
-        <v>0.00554609230832486</v>
+        <v>0.005949167639074078</v>
       </c>
       <c r="L2" t="n">
-        <v>0.005368068416555367</v>
+        <v>0.005867448342101447</v>
       </c>
       <c r="M2" t="n">
-        <v>0.005350028676182287</v>
+        <v>0.005681221723576779</v>
       </c>
       <c r="N2" t="n">
-        <v>0.005330886920923888</v>
+        <v>0.005443680159604796</v>
       </c>
       <c r="O2" t="n">
-        <v>0.005222996853396169</v>
+        <v>0.005349538687709705</v>
       </c>
       <c r="P2" t="n">
-        <v>0.005201374725740684</v>
+        <v>0.005263998167949615</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.005158564432651586</v>
+        <v>0.005178018518343672</v>
       </c>
       <c r="R2" t="n">
-        <v>0.005158564432651586</v>
+        <v>0.005111267295363178</v>
       </c>
       <c r="S2" t="n">
-        <v>0.005031695058987714</v>
+        <v>0.005068157494438424</v>
       </c>
       <c r="T2" t="n">
-        <v>0.005000882620650365</v>
+        <v>0.005053482205065852</v>
       </c>
       <c r="U2" t="n">
-        <v>0.004997183714750971</v>
+        <v>0.005030054674675074</v>
       </c>
       <c r="V2" t="n">
-        <v>0.004964961072714322</v>
+        <v>0.004992287320865127</v>
       </c>
       <c r="W2" t="n">
-        <v>0.004861463602686795</v>
+        <v>0.004978389784957105</v>
       </c>
       <c r="X2" t="n">
-        <v>0.004856428651974109</v>
+        <v>0.004958482620759116</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.004830073115479084</v>
+        <v>0.004956543267275845</v>
       </c>
     </row>
     <row r="3">
@@ -649,73 +649,73 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4374735355377197</v>
+        <v>0.9819991588592529</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>236.3471185846793</v>
+        <v>255.7576862166443</v>
       </c>
       <c r="F3" t="n">
-        <v>0.006924576998276322</v>
+        <v>0.00855709625387328</v>
       </c>
       <c r="G3" t="n">
-        <v>0.006413894287459016</v>
+        <v>0.0073906371341676</v>
       </c>
       <c r="H3" t="n">
-        <v>0.005695724227595159</v>
+        <v>0.006829220883890151</v>
       </c>
       <c r="I3" t="n">
-        <v>0.005432667444686222</v>
+        <v>0.006417108989448499</v>
       </c>
       <c r="J3" t="n">
-        <v>0.00537775210224709</v>
+        <v>0.005972092946303709</v>
       </c>
       <c r="K3" t="n">
-        <v>0.005198389032611033</v>
+        <v>0.005972092946303709</v>
       </c>
       <c r="L3" t="n">
-        <v>0.005048080143509221</v>
+        <v>0.005623144531174283</v>
       </c>
       <c r="M3" t="n">
-        <v>0.004965241438048888</v>
+        <v>0.005538980301388322</v>
       </c>
       <c r="N3" t="n">
-        <v>0.004965241438048888</v>
+        <v>0.005346766489033825</v>
       </c>
       <c r="O3" t="n">
-        <v>0.004965241438048888</v>
+        <v>0.005346766489033825</v>
       </c>
       <c r="P3" t="n">
-        <v>0.004855774544629095</v>
+        <v>0.005295347073378718</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.004779921238549145</v>
+        <v>0.00523639899976222</v>
       </c>
       <c r="R3" t="n">
-        <v>0.004730227818857203</v>
+        <v>0.005182132683253726</v>
       </c>
       <c r="S3" t="n">
-        <v>0.004730227818857203</v>
+        <v>0.005166279296265544</v>
       </c>
       <c r="T3" t="n">
-        <v>0.004707253353470391</v>
+        <v>0.00510208695496064</v>
       </c>
       <c r="U3" t="n">
-        <v>0.00467207040456914</v>
+        <v>0.005077811508431552</v>
       </c>
       <c r="V3" t="n">
-        <v>0.00466485475020488</v>
+        <v>0.005030977237723147</v>
       </c>
       <c r="W3" t="n">
-        <v>0.004639791634209141</v>
+        <v>0.00501340099789688</v>
       </c>
       <c r="X3" t="n">
-        <v>0.004631921710464042</v>
+        <v>0.004993724607915987</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.004607156307693551</v>
+        <v>0.004985529945743552</v>
       </c>
     </row>
     <row r="4">
@@ -728,73 +728,73 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5156247615814209</v>
+        <v>0.8830037117004395</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>235.6774715577303</v>
+        <v>258.0011464708459</v>
       </c>
       <c r="F4" t="n">
-        <v>0.006991883289192024</v>
+        <v>0.008750450504240221</v>
       </c>
       <c r="G4" t="n">
-        <v>0.006216056926719194</v>
+        <v>0.007428825686975189</v>
       </c>
       <c r="H4" t="n">
-        <v>0.006100775546888117</v>
+        <v>0.006832313793962937</v>
       </c>
       <c r="I4" t="n">
-        <v>0.005716206943185562</v>
+        <v>0.006581528988632344</v>
       </c>
       <c r="J4" t="n">
-        <v>0.005643899836768592</v>
+        <v>0.00628385204708888</v>
       </c>
       <c r="K4" t="n">
-        <v>0.005576468286968062</v>
+        <v>0.006092395188772027</v>
       </c>
       <c r="L4" t="n">
-        <v>0.005389589799091743</v>
+        <v>0.005686891702940346</v>
       </c>
       <c r="M4" t="n">
-        <v>0.005251061208827164</v>
+        <v>0.005653695681661591</v>
       </c>
       <c r="N4" t="n">
-        <v>0.005232184215597051</v>
+        <v>0.005456957939559233</v>
       </c>
       <c r="O4" t="n">
-        <v>0.005062461164214159</v>
+        <v>0.005283720542617467</v>
       </c>
       <c r="P4" t="n">
-        <v>0.005039260274946298</v>
+        <v>0.005278995103781375</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.004948983830580043</v>
+        <v>0.005214761884832879</v>
       </c>
       <c r="R4" t="n">
-        <v>0.004813853858165856</v>
+        <v>0.005171031595024177</v>
       </c>
       <c r="S4" t="n">
-        <v>0.00471486728055802</v>
+        <v>0.005119032541116684</v>
       </c>
       <c r="T4" t="n">
-        <v>0.00471486728055802</v>
+        <v>0.005119032541116684</v>
       </c>
       <c r="U4" t="n">
-        <v>0.00471486728055802</v>
+        <v>0.005101553902029912</v>
       </c>
       <c r="V4" t="n">
-        <v>0.004680508199265471</v>
+        <v>0.005061313413051016</v>
       </c>
       <c r="W4" t="n">
-        <v>0.004626800425830808</v>
+        <v>0.005060682879978267</v>
       </c>
       <c r="X4" t="n">
-        <v>0.004612829133752524</v>
+        <v>0.005046934722185288</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.004594102759409946</v>
+        <v>0.00502926211444144</v>
       </c>
     </row>
     <row r="5">
@@ -807,73 +807,73 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4218757152557373</v>
+        <v>0.9000015258789062</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>234.8336414771766</v>
+        <v>262.5502477866321</v>
       </c>
       <c r="F5" t="n">
-        <v>0.007164587072448732</v>
+        <v>0.008539685116412517</v>
       </c>
       <c r="G5" t="n">
-        <v>0.006050059988423096</v>
+        <v>0.007526497218599611</v>
       </c>
       <c r="H5" t="n">
-        <v>0.005756281780270556</v>
+        <v>0.006971269499497626</v>
       </c>
       <c r="I5" t="n">
-        <v>0.005593430202232652</v>
+        <v>0.0064905539500391</v>
       </c>
       <c r="J5" t="n">
-        <v>0.005450650160137281</v>
+        <v>0.006379847505792928</v>
       </c>
       <c r="K5" t="n">
-        <v>0.005439892877537763</v>
+        <v>0.006094395720820083</v>
       </c>
       <c r="L5" t="n">
-        <v>0.005262587291965731</v>
+        <v>0.005894024909914334</v>
       </c>
       <c r="M5" t="n">
-        <v>0.005237266037350487</v>
+        <v>0.0058332505205918</v>
       </c>
       <c r="N5" t="n">
-        <v>0.004952001170737065</v>
+        <v>0.005689782816307005</v>
       </c>
       <c r="O5" t="n">
-        <v>0.004917439462269275</v>
+        <v>0.005580906141016486</v>
       </c>
       <c r="P5" t="n">
-        <v>0.004909506667708198</v>
+        <v>0.005468711567510788</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.004810135280202383</v>
+        <v>0.005426260864235471</v>
       </c>
       <c r="R5" t="n">
-        <v>0.004740524163207559</v>
+        <v>0.005347799323207171</v>
       </c>
       <c r="S5" t="n">
-        <v>0.004697780683187697</v>
+        <v>0.005286937088665432</v>
       </c>
       <c r="T5" t="n">
-        <v>0.004682468173245597</v>
+        <v>0.005247448089684994</v>
       </c>
       <c r="U5" t="n">
-        <v>0.004655913975576752</v>
+        <v>0.005196631731403676</v>
       </c>
       <c r="V5" t="n">
-        <v>0.004642109381614089</v>
+        <v>0.005157006791149944</v>
       </c>
       <c r="W5" t="n">
-        <v>0.00459128954086341</v>
+        <v>0.005140726356064696</v>
       </c>
       <c r="X5" t="n">
-        <v>0.00459128954086341</v>
+        <v>0.005131480039888957</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.004577653829964454</v>
+        <v>0.005117938553345654</v>
       </c>
     </row>
     <row r="6">
@@ -886,73 +886,73 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4375348091125488</v>
+        <v>0.8009951114654541</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>241.3709982473665</v>
+        <v>262.4470893144517</v>
       </c>
       <c r="F6" t="n">
-        <v>0.006903139592921585</v>
+        <v>0.008583839968238168</v>
       </c>
       <c r="G6" t="n">
-        <v>0.006204056699690823</v>
+        <v>0.007464981996728706</v>
       </c>
       <c r="H6" t="n">
-        <v>0.005757271650882048</v>
+        <v>0.006951044305928853</v>
       </c>
       <c r="I6" t="n">
-        <v>0.005698095064417109</v>
+        <v>0.00650527101108664</v>
       </c>
       <c r="J6" t="n">
-        <v>0.005554323254832533</v>
+        <v>0.006365203384811657</v>
       </c>
       <c r="K6" t="n">
-        <v>0.005554323254832533</v>
+        <v>0.006067305846395559</v>
       </c>
       <c r="L6" t="n">
-        <v>0.005546628031019561</v>
+        <v>0.005852948093393954</v>
       </c>
       <c r="M6" t="n">
-        <v>0.005391319488743227</v>
+        <v>0.005818274477339521</v>
       </c>
       <c r="N6" t="n">
-        <v>0.005391319488743227</v>
+        <v>0.005490828533731356</v>
       </c>
       <c r="O6" t="n">
-        <v>0.005244614828560066</v>
+        <v>0.005465684042434612</v>
       </c>
       <c r="P6" t="n">
-        <v>0.00515059944027896</v>
+        <v>0.005441374846924273</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.004947169500467859</v>
+        <v>0.005384306316691701</v>
       </c>
       <c r="R6" t="n">
-        <v>0.004947169500467859</v>
+        <v>0.005349044636173719</v>
       </c>
       <c r="S6" t="n">
-        <v>0.004892568588757074</v>
+        <v>0.005317118558449183</v>
       </c>
       <c r="T6" t="n">
-        <v>0.004858157973933691</v>
+        <v>0.005263399757991952</v>
       </c>
       <c r="U6" t="n">
-        <v>0.004825713092965233</v>
+        <v>0.005203448491560918</v>
       </c>
       <c r="V6" t="n">
-        <v>0.004785250813344502</v>
+        <v>0.005186793674804797</v>
       </c>
       <c r="W6" t="n">
-        <v>0.004785250813344502</v>
+        <v>0.005150076047159326</v>
       </c>
       <c r="X6" t="n">
-        <v>0.004719877406016137</v>
+        <v>0.005137111824741557</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.004705087685133849</v>
+        <v>0.005115927666948374</v>
       </c>
     </row>
     <row r="7">
@@ -965,73 +965,73 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5569784641265869</v>
+        <v>0.943011999130249</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>242.6358888408104</v>
+        <v>262.9002613004322</v>
       </c>
       <c r="F7" t="n">
-        <v>0.006887718867366348</v>
+        <v>0.008768216552876662</v>
       </c>
       <c r="G7" t="n">
-        <v>0.006063487179328527</v>
+        <v>0.007620220398347506</v>
       </c>
       <c r="H7" t="n">
-        <v>0.005877852989776113</v>
+        <v>0.007012680334410742</v>
       </c>
       <c r="I7" t="n">
-        <v>0.005603297877380177</v>
+        <v>0.006546069182156401</v>
       </c>
       <c r="J7" t="n">
-        <v>0.005560686992261497</v>
+        <v>0.006225098410961602</v>
       </c>
       <c r="K7" t="n">
-        <v>0.005359086019515882</v>
+        <v>0.006046079858083527</v>
       </c>
       <c r="L7" t="n">
-        <v>0.005233873793228222</v>
+        <v>0.005812433871661094</v>
       </c>
       <c r="M7" t="n">
-        <v>0.005146086463740425</v>
+        <v>0.005615278097406752</v>
       </c>
       <c r="N7" t="n">
-        <v>0.005146086463740425</v>
+        <v>0.005615278097406752</v>
       </c>
       <c r="O7" t="n">
-        <v>0.005142828519656424</v>
+        <v>0.005537904797729317</v>
       </c>
       <c r="P7" t="n">
-        <v>0.004995613644830909</v>
+        <v>0.005410690937746566</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.004937869913442625</v>
+        <v>0.005379151999298656</v>
       </c>
       <c r="R7" t="n">
-        <v>0.004870360548434955</v>
+        <v>0.005349341345135344</v>
       </c>
       <c r="S7" t="n">
-        <v>0.004870360548434955</v>
+        <v>0.005293971928667159</v>
       </c>
       <c r="T7" t="n">
-        <v>0.004854372168062969</v>
+        <v>0.005256864578727594</v>
       </c>
       <c r="U7" t="n">
-        <v>0.004786134759725297</v>
+        <v>0.005220410840461625</v>
       </c>
       <c r="V7" t="n">
-        <v>0.004757437572317716</v>
+        <v>0.005170181691043117</v>
       </c>
       <c r="W7" t="n">
-        <v>0.004757437572317716</v>
+        <v>0.005150118979842965</v>
       </c>
       <c r="X7" t="n">
-        <v>0.004753879162830339</v>
+        <v>0.005139468539635497</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.004729744421848154</v>
+        <v>0.005124761428858328</v>
       </c>
     </row>
     <row r="8">
@@ -1044,73 +1044,73 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4241547584533691</v>
+        <v>0.8500008583068848</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>251.4473630892771</v>
+        <v>257.7230928099325</v>
       </c>
       <c r="F8" t="n">
-        <v>0.007109132424406193</v>
+        <v>0.008473533276012753</v>
       </c>
       <c r="G8" t="n">
-        <v>0.006042823208021887</v>
+        <v>0.007558127499091636</v>
       </c>
       <c r="H8" t="n">
-        <v>0.00592215226963446</v>
+        <v>0.006863469102840378</v>
       </c>
       <c r="I8" t="n">
-        <v>0.005632143238663029</v>
+        <v>0.006284846350559713</v>
       </c>
       <c r="J8" t="n">
-        <v>0.005632143238663029</v>
+        <v>0.006130566890047705</v>
       </c>
       <c r="K8" t="n">
-        <v>0.005520109195946438</v>
+        <v>0.005879239545718493</v>
       </c>
       <c r="L8" t="n">
-        <v>0.005520109195946438</v>
+        <v>0.005745509062340524</v>
       </c>
       <c r="M8" t="n">
-        <v>0.005520109195946438</v>
+        <v>0.005619181310348739</v>
       </c>
       <c r="N8" t="n">
-        <v>0.005520109195946438</v>
+        <v>0.005494316018819332</v>
       </c>
       <c r="O8" t="n">
-        <v>0.005296690572315028</v>
+        <v>0.005401938260586187</v>
       </c>
       <c r="P8" t="n">
-        <v>0.005296690572315028</v>
+        <v>0.005287154475923851</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.005205694379888548</v>
+        <v>0.005271121686345311</v>
       </c>
       <c r="R8" t="n">
-        <v>0.00513515907119778</v>
+        <v>0.005171620337912766</v>
       </c>
       <c r="S8" t="n">
-        <v>0.005065338725895311</v>
+        <v>0.005144512964393868</v>
       </c>
       <c r="T8" t="n">
-        <v>0.004969108437109032</v>
+        <v>0.005101105762430847</v>
       </c>
       <c r="U8" t="n">
-        <v>0.004969108437109032</v>
+        <v>0.005071870373958198</v>
       </c>
       <c r="V8" t="n">
-        <v>0.004948391964720776</v>
+        <v>0.005053439084391501</v>
       </c>
       <c r="W8" t="n">
-        <v>0.004947991265724102</v>
+        <v>0.005042695067480515</v>
       </c>
       <c r="X8" t="n">
-        <v>0.004901508052422556</v>
+        <v>0.005030876734604835</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.004901508052422556</v>
+        <v>0.005023841965105896</v>
       </c>
     </row>
     <row r="9">
@@ -1123,73 +1123,73 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4375081062316895</v>
+        <v>0.9649703502655029</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>238.6743466546432</v>
+        <v>260.4675182507253</v>
       </c>
       <c r="F9" t="n">
-        <v>0.007110440230760829</v>
+        <v>0.008578781988416892</v>
       </c>
       <c r="G9" t="n">
-        <v>0.006290415420899859</v>
+        <v>0.007412699781616395</v>
       </c>
       <c r="H9" t="n">
-        <v>0.005660798712296734</v>
+        <v>0.006718006907143553</v>
       </c>
       <c r="I9" t="n">
-        <v>0.005660798712296734</v>
+        <v>0.00647518668510253</v>
       </c>
       <c r="J9" t="n">
-        <v>0.005526496296618408</v>
+        <v>0.006069050287920372</v>
       </c>
       <c r="K9" t="n">
-        <v>0.005278738572034594</v>
+        <v>0.005984949621312362</v>
       </c>
       <c r="L9" t="n">
-        <v>0.005238727854869574</v>
+        <v>0.005868594454970331</v>
       </c>
       <c r="M9" t="n">
-        <v>0.005080838014660986</v>
+        <v>0.005712811299334304</v>
       </c>
       <c r="N9" t="n">
-        <v>0.005080838014660986</v>
+        <v>0.005599484598568624</v>
       </c>
       <c r="O9" t="n">
-        <v>0.005010461058546392</v>
+        <v>0.005499210951538362</v>
       </c>
       <c r="P9" t="n">
-        <v>0.004962920583519496</v>
+        <v>0.005352787694859177</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.004887595201686003</v>
+        <v>0.005308281785186103</v>
       </c>
       <c r="R9" t="n">
-        <v>0.004887595201686003</v>
+        <v>0.005236070870734982</v>
       </c>
       <c r="S9" t="n">
-        <v>0.004887595201686003</v>
+        <v>0.005217604046448476</v>
       </c>
       <c r="T9" t="n">
-        <v>0.00483145318522345</v>
+        <v>0.005166546349187308</v>
       </c>
       <c r="U9" t="n">
-        <v>0.004766390292302868</v>
+        <v>0.005155207867951121</v>
       </c>
       <c r="V9" t="n">
-        <v>0.004715112274485579</v>
+        <v>0.005132138797035066</v>
       </c>
       <c r="W9" t="n">
-        <v>0.004692808336503287</v>
+        <v>0.005106033409024144</v>
       </c>
       <c r="X9" t="n">
-        <v>0.004664200919009476</v>
+        <v>0.005087862434947308</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.004652521377283492</v>
+        <v>0.005077339537051175</v>
       </c>
     </row>
     <row r="10">
@@ -1202,73 +1202,73 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4531004428863525</v>
+        <v>0.7440032958984375</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>241.070044650065</v>
+        <v>260.866412852236</v>
       </c>
       <c r="F10" t="n">
-        <v>0.006982259873881369</v>
+        <v>0.008451024298259897</v>
       </c>
       <c r="G10" t="n">
-        <v>0.006023874135017891</v>
+        <v>0.007140013801404936</v>
       </c>
       <c r="H10" t="n">
-        <v>0.006018370504520538</v>
+        <v>0.006723629834367469</v>
       </c>
       <c r="I10" t="n">
-        <v>0.005713122579205059</v>
+        <v>0.006463907677504347</v>
       </c>
       <c r="J10" t="n">
-        <v>0.005708302549488474</v>
+        <v>0.006315288550667298</v>
       </c>
       <c r="K10" t="n">
-        <v>0.005377935670662656</v>
+        <v>0.006069243358815724</v>
       </c>
       <c r="L10" t="n">
-        <v>0.005377935670662656</v>
+        <v>0.00583053646154507</v>
       </c>
       <c r="M10" t="n">
-        <v>0.005083272663345992</v>
+        <v>0.00583053646154507</v>
       </c>
       <c r="N10" t="n">
-        <v>0.005083272663345992</v>
+        <v>0.00571005429228627</v>
       </c>
       <c r="O10" t="n">
-        <v>0.005076052182641191</v>
+        <v>0.005539613368064573</v>
       </c>
       <c r="P10" t="n">
-        <v>0.005002875746391601</v>
+        <v>0.005459766284222768</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.004910801382794216</v>
+        <v>0.005338489777168539</v>
       </c>
       <c r="R10" t="n">
-        <v>0.004897457529354403</v>
+        <v>0.00528141527916642</v>
       </c>
       <c r="S10" t="n">
-        <v>0.004817160699171188</v>
+        <v>0.005181056331172749</v>
       </c>
       <c r="T10" t="n">
-        <v>0.004817160699171188</v>
+        <v>0.00517116456612896</v>
       </c>
       <c r="U10" t="n">
-        <v>0.004798742237798486</v>
+        <v>0.005142950326080678</v>
       </c>
       <c r="V10" t="n">
-        <v>0.004768103586381387</v>
+        <v>0.005098984472938097</v>
       </c>
       <c r="W10" t="n">
-        <v>0.004745466125138997</v>
+        <v>0.005091671242786409</v>
       </c>
       <c r="X10" t="n">
-        <v>0.004701409642272272</v>
+        <v>0.005091671242786409</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.00469922114327612</v>
+        <v>0.005085115260277503</v>
       </c>
     </row>
     <row r="11">
@@ -1281,73 +1281,73 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4219002723693848</v>
+        <v>0.769000768661499</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>244.0361624010875</v>
+        <v>255.4996603022119</v>
       </c>
       <c r="F11" t="n">
-        <v>0.006939853198287947</v>
+        <v>0.008492893888960891</v>
       </c>
       <c r="G11" t="n">
-        <v>0.006184302063529063</v>
+        <v>0.007373282264214398</v>
       </c>
       <c r="H11" t="n">
-        <v>0.005863156135026648</v>
+        <v>0.006781786482252358</v>
       </c>
       <c r="I11" t="n">
-        <v>0.005706046768763199</v>
+        <v>0.006302856045697241</v>
       </c>
       <c r="J11" t="n">
-        <v>0.005393229082475375</v>
+        <v>0.005962142091477295</v>
       </c>
       <c r="K11" t="n">
-        <v>0.005352543038583742</v>
+        <v>0.005834032027287958</v>
       </c>
       <c r="L11" t="n">
-        <v>0.005352543038583742</v>
+        <v>0.005821103351618094</v>
       </c>
       <c r="M11" t="n">
-        <v>0.00502433553759918</v>
+        <v>0.005781003763567156</v>
       </c>
       <c r="N11" t="n">
-        <v>0.00502433553759918</v>
+        <v>0.005606310836693298</v>
       </c>
       <c r="O11" t="n">
-        <v>0.00502433553759918</v>
+        <v>0.005606310836693298</v>
       </c>
       <c r="P11" t="n">
-        <v>0.004993050516996236</v>
+        <v>0.005402132931980636</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.004973710896965481</v>
+        <v>0.005281346331845362</v>
       </c>
       <c r="R11" t="n">
-        <v>0.004973710896965481</v>
+        <v>0.005214440307362854</v>
       </c>
       <c r="S11" t="n">
-        <v>0.004852222514633417</v>
+        <v>0.00511923710532463</v>
       </c>
       <c r="T11" t="n">
-        <v>0.004852222514633417</v>
+        <v>0.005104226478408774</v>
       </c>
       <c r="U11" t="n">
-        <v>0.004852222514633417</v>
+        <v>0.00507014158604926</v>
       </c>
       <c r="V11" t="n">
-        <v>0.004781483924785507</v>
+        <v>0.005030417194125069</v>
       </c>
       <c r="W11" t="n">
-        <v>0.004781483924785507</v>
+        <v>0.005002812791706453</v>
       </c>
       <c r="X11" t="n">
-        <v>0.004768052431868303</v>
+        <v>0.004990501457215717</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.004757040202750243</v>
+        <v>0.004980500200822842</v>
       </c>
     </row>
   </sheetData>
